--- a/biology/Botanique/Liste_des_espèces_d'amélanchiers/Liste_des_espèces_d'amélanchiers.xlsx
+++ b/biology/Botanique/Liste_des_espèces_d'amélanchiers/Liste_des_espèces_d'amélanchiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27am%C3%A9lanchiers</t>
+          <t>Liste_des_espèces_d'amélanchiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Listes d'espèces et d'hybrides d'amélanchier ainsi que leurs cultivars.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27am%C3%A9lanchiers</t>
+          <t>Liste_des_espèces_d'amélanchiers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liste d'espèces
@@ -731,7 +745,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27am%C3%A9lanchiers</t>
+          <t>Liste_des_espèces_d'amélanchiers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -749,7 +763,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liste de cultivars
@@ -833,7 +849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27am%C3%A9lanchiers</t>
+          <t>Liste_des_espèces_d'amélanchiers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -851,9 +867,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 mai 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 mai 2012) :
 Amelanchier acuminulata
 Amelanchier alnifolia
 Amelanchier amelanchier
@@ -932,7 +950,7 @@
 Amelanchier vallisclausae
 Amelanchier vapincis
 Amelanchier vestita
-Selon ITIS      (9 mai 2012)[2] :
+Selon ITIS      (9 mai 2012) :
 Amelanchier alnifolia (Nutt.) Nutt. ex M. Roem.
 Amelanchier amabilis Wiegand
 Amelanchier arborea (F. Michx.) Fernald
@@ -955,7 +973,7 @@
 Amelanchier sanguinea (Pursh) DC.
 Amelanchier spicata (Lam.) K. Koch
 Amelanchier utahensis Koehne
-Selon NCBI  (9 mai 2012)[3] :
+Selon NCBI  (9 mai 2012) :
 Amelanchier alnifolia
 Amelanchier arborea
 Amelanchier asiatica
